--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\San_Marino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -463,54 +463,9 @@
     <t>High convenience set of tables table of actual coins with photos</t>
   </si>
   <si>
-    <t>Third tower (Il Montale)</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Statue of Liberty</t>
-  </si>
-  <si>
-    <t>San Marino's city gate</t>
-  </si>
-  <si>
-    <t>First tower (La Guaita)</t>
-  </si>
-  <si>
-    <t>Church of Saint Quirinus</t>
-  </si>
-  <si>
-    <t>Basilica of St. Marinus</t>
-  </si>
-  <si>
-    <t>Church of Saint Francis</t>
-  </si>
-  <si>
-    <t>Saint Marinus</t>
-  </si>
-  <si>
-    <t>Mount Titano and the three towers</t>
-  </si>
-  <si>
-    <t>The Three Towers of San Marino</t>
-  </si>
-  <si>
-    <t>Portrait of San Marino</t>
-  </si>
-  <si>
-    <t>Coat of arms of San Marino</t>
-  </si>
-  <si>
-    <t>Second tower (La Cesta)</t>
-  </si>
-  <si>
-    <t>Government Building</t>
-  </si>
-  <si>
-    <t>Obv: With mint letter "R"</t>
-  </si>
-  <si>
     <t>115.000</t>
   </si>
   <si>
@@ -692,6 +647,51 @@
   </si>
   <si>
     <t>398.150</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - "R"</t>
+  </si>
+  <si>
+    <t>Obv: Third tower (Il Montale)</t>
+  </si>
+  <si>
+    <t>Obv: Coat of arms of San Marino</t>
+  </si>
+  <si>
+    <t>Obv: Statue of Liberty</t>
+  </si>
+  <si>
+    <t>Obv: San Marino's city gate</t>
+  </si>
+  <si>
+    <t>Obv: First tower (La Guaita)</t>
+  </si>
+  <si>
+    <t>Obv: Church of Saint Quirinus</t>
+  </si>
+  <si>
+    <t>Obv: Basilica of St. Marinus</t>
+  </si>
+  <si>
+    <t>Obv: Church of Saint Francis</t>
+  </si>
+  <si>
+    <t>Obv: Saint Marinus</t>
+  </si>
+  <si>
+    <t>Obv: Mount Titano and the three towers</t>
+  </si>
+  <si>
+    <t>Obv: The Three Towers of San Marino</t>
+  </si>
+  <si>
+    <t>Obv: Portrait of San Marino</t>
+  </si>
+  <si>
+    <t>Obv: Second tower (La Cesta)</t>
+  </si>
+  <si>
+    <t>Obv: Government Building</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -872,13 +872,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,6 +954,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -960,47 +978,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1090,134 +1068,6 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1249,9 +1099,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="17"/>
-    <tableColumn id="2" name="Link" dataDxfId="16" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="15"/>
+    <tableColumn id="1" name="№" dataDxfId="12"/>
+    <tableColumn id="2" name="Link" dataDxfId="11" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1522,11 +1372,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C3:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1540,16 +1390,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1559,8 +1409,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1568,10 +1418,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1580,14 +1430,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="28" t="s">
-        <v>47</v>
+      <c r="E3" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -1603,14 +1453,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="28" t="s">
-        <v>48</v>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -1626,14 +1476,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1648,14 +1498,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="28" t="s">
-        <v>48</v>
+      <c r="E6" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -1670,14 +1520,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1692,14 +1542,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="28" t="s">
-        <v>48</v>
+      <c r="E8" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -1714,14 +1564,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="28" t="s">
-        <v>51</v>
+      <c r="E9" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -1736,14 +1586,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="28" t="s">
-        <v>51</v>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -1758,14 +1608,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="28" t="s">
-        <v>52</v>
+      <c r="E11" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -1780,14 +1630,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -1802,14 +1652,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="28" t="s">
-        <v>54</v>
+      <c r="E13" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -1824,14 +1674,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="28" t="s">
-        <v>55</v>
+      <c r="E14" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1846,14 +1696,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="28" t="s">
-        <v>56</v>
+      <c r="E15" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -1868,14 +1718,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="28" t="s">
-        <v>57</v>
+      <c r="E16" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -1890,14 +1740,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="28" t="s">
-        <v>58</v>
+      <c r="E17" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1912,14 +1762,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="28" t="s">
-        <v>59</v>
+      <c r="E18" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -1934,14 +1784,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="28" t="s">
-        <v>60</v>
+      <c r="E19" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -1956,14 +1806,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -1980,7 +1830,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2010,7 +1860,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E20"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2025,16 +1875,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -2044,8 +1894,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2053,10 +1903,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2065,14 +1915,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="28" t="s">
-        <v>47</v>
+      <c r="E3" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -2088,14 +1938,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2111,14 +1961,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2133,14 +1983,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="28" t="s">
-        <v>63</v>
+      <c r="E6" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -2155,14 +2005,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2177,14 +2027,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -2199,14 +2049,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="28" t="s">
-        <v>51</v>
+      <c r="E9" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -2221,14 +2071,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="28" t="s">
-        <v>51</v>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -2243,14 +2093,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="28" t="s">
-        <v>52</v>
+      <c r="E11" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -2265,14 +2115,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -2287,14 +2137,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="28" t="s">
-        <v>54</v>
+      <c r="E13" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -2309,14 +2159,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="28" t="s">
-        <v>55</v>
+      <c r="E14" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -2331,14 +2181,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="28" t="s">
-        <v>56</v>
+      <c r="E15" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -2353,14 +2203,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="28" t="s">
-        <v>57</v>
+      <c r="E16" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2375,14 +2225,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>96</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="28" t="s">
-        <v>58</v>
+      <c r="E17" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2397,14 +2247,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
+        <v>97</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="28" t="s">
-        <v>59</v>
+      <c r="E18" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -2419,14 +2269,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>97</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="28" t="s">
-        <v>64</v>
+      <c r="E19" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2441,14 +2291,499 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="24" t="s">
         <v>46</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="28" t="s">
-        <v>61</v>
+      <c r="E20" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2487,500 +2822,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2993,17 +2843,17 @@
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3012,9 +2862,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3022,28 +2872,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>47</v>
+      <c r="E3" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -3052,23 +2902,22 @@
         <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>48</v>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -3077,23 +2926,22 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3103,21 +2951,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>48</v>
+      <c r="E6" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -3127,21 +2975,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3151,21 +2999,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>68</v>
+      <c r="E8" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3175,21 +3023,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>51</v>
+        <v>100</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -3199,21 +3047,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>51</v>
+        <v>100</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -3223,21 +3071,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>69</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3247,21 +3095,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3271,21 +3119,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>54</v>
+        <v>100</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3295,21 +3143,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>70</v>
+        <v>100</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3319,21 +3167,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3343,21 +3191,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>57</v>
+        <v>100</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3372,16 +3220,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>58</v>
+        <v>100</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -3396,16 +3244,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>59</v>
+        <v>101</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -3420,16 +3268,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>64</v>
+        <v>101</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -3444,16 +3292,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -3470,7 +3318,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F8:F20 F6">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3487,7 +3335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3504,7 +3352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3534,7 +3382,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3549,16 +3397,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3568,8 +3416,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3577,10 +3425,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3589,16 +3437,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3614,16 +3462,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3639,16 +3487,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>48</v>
+      <c r="E5" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -3663,16 +3511,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3687,16 +3535,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3711,16 +3559,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3735,16 +3583,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>46</v>
+        <v>102</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3759,16 +3607,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>51</v>
+        <v>102</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -3783,16 +3631,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>52</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3807,16 +3655,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3831,16 +3679,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3855,16 +3703,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>102</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3879,16 +3727,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>56</v>
+        <v>102</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3903,16 +3751,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>46</v>
+        <v>102</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3927,16 +3775,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>46</v>
+        <v>102</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3951,16 +3799,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>103</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3975,16 +3823,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
+        <v>103</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3999,16 +3847,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -4025,7 +3873,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4055,7 +3903,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4070,16 +3918,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -4089,8 +3937,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4098,10 +3946,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4110,16 +3958,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4135,16 +3983,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4160,16 +4008,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>48</v>
+      <c r="E5" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -4184,16 +4032,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4208,16 +4056,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4232,16 +4080,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4256,16 +4104,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>46</v>
+        <v>104</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4280,16 +4128,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>51</v>
+        <v>104</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -4304,16 +4152,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>52</v>
+        <v>104</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4328,16 +4176,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
+        <v>104</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4352,16 +4200,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>104</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4376,16 +4224,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>104</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4400,16 +4248,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
+        <v>104</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4424,16 +4272,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>46</v>
+        <v>104</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4448,16 +4296,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>58</v>
+        <v>104</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -4472,16 +4320,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>59</v>
+        <v>105</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -4496,16 +4344,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
+        <v>105</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4520,16 +4368,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>46</v>
+        <v>105</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4546,7 +4394,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4576,7 +4424,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F20"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4591,16 +4439,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -4610,8 +4458,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4619,10 +4467,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4631,16 +4479,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4656,16 +4504,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>48</v>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -4682,16 +4530,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4706,16 +4554,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>48</v>
+      <c r="E6" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -4730,16 +4578,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4754,16 +4602,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>48</v>
+      <c r="E8" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4778,16 +4626,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>51</v>
+        <v>95</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -4802,16 +4650,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4826,16 +4674,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4850,16 +4698,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
+        <v>95</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4874,16 +4722,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4898,16 +4746,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4922,16 +4770,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4946,16 +4794,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4970,16 +4818,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -4994,16 +4842,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>106</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5018,16 +4866,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
+        <v>106</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5042,16 +4890,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>46</v>
+        <v>106</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5068,7 +4916,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5094,7 +4942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5113,16 +4961,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -5132,8 +4980,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -5141,10 +4989,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5153,16 +5001,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -5178,16 +5026,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>48</v>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -5204,16 +5052,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>48</v>
+      <c r="E5" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -5228,16 +5076,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>63</v>
+      <c r="E6" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -5252,16 +5100,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5276,16 +5124,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>68</v>
+      <c r="E8" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -5300,16 +5148,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>51</v>
+        <v>107</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -5324,16 +5172,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>51</v>
+        <v>107</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -5348,16 +5196,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>69</v>
+        <v>107</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -5372,16 +5220,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5396,16 +5244,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5420,16 +5268,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5444,16 +5292,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -5468,16 +5316,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>57</v>
+        <v>107</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -5492,16 +5340,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5516,16 +5364,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>105</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5540,16 +5388,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>60</v>
+        <v>105</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -5564,16 +5412,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>46</v>
+        <v>105</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5590,7 +5438,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\San_Marino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B014C9E-4598-4A41-905F-9BECB1C6A8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,12 +159,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -242,12 +243,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,12 +327,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="112">
   <si>
     <t>-</t>
   </si>
@@ -692,12 +693,24 @@
   </si>
   <si>
     <t>Obv: Government Building</t>
+  </si>
+  <si>
+    <t>23.500</t>
+  </si>
+  <si>
+    <t>623.500</t>
+  </si>
+  <si>
+    <t>523.500</t>
+  </si>
+  <si>
+    <t>644.757</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,6 +970,9 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,16 +985,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1059,15 +1145,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1092,16 +1169,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="12"/>
-    <tableColumn id="2" name="Link" dataDxfId="11" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1369,37 +1446,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C3:C20"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="24.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1408,9 +1485,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1425,14 +1502,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="12"/>
@@ -1448,14 +1525,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="12"/>
@@ -1471,14 +1548,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="12"/>
@@ -1493,14 +1570,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="12"/>
@@ -1515,14 +1592,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="12"/>
@@ -1537,14 +1614,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="12"/>
@@ -1559,14 +1636,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="12"/>
@@ -1581,14 +1658,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="12"/>
@@ -1603,14 +1680,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="12"/>
@@ -1625,14 +1702,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="12"/>
@@ -1647,14 +1724,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="12"/>
@@ -1669,14 +1746,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="12"/>
@@ -1691,14 +1768,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="12"/>
@@ -1713,14 +1790,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="12"/>
@@ -1735,14 +1812,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="12"/>
@@ -1757,14 +1834,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="12"/>
@@ -1779,14 +1856,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="12"/>
@@ -1801,14 +1878,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="12"/>
@@ -1820,6 +1897,28 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1830,11 +1929,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1853,38 +1969,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1893,9 +2009,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1910,14 +2026,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="6"/>
@@ -1928,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="6"/>
@@ -1956,14 +2072,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="6"/>
@@ -1978,14 +2094,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="6"/>
@@ -2000,14 +2116,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="6"/>
@@ -2022,14 +2138,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="6"/>
@@ -2044,14 +2160,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="6"/>
@@ -2066,14 +2182,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="6"/>
@@ -2088,14 +2204,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="6"/>
@@ -2110,14 +2226,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6"/>
@@ -2132,14 +2248,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="6"/>
@@ -2154,14 +2270,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="6"/>
@@ -2176,14 +2292,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="6"/>
@@ -2198,14 +2314,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="6"/>
@@ -2220,14 +2336,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="6"/>
@@ -2242,14 +2358,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="6"/>
@@ -2264,14 +2380,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="6"/>
@@ -2286,14 +2402,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="6"/>
@@ -2304,6 +2420,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2315,11 +2453,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2338,38 +2493,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -2378,9 +2533,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2395,14 +2550,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="6"/>
@@ -2413,19 +2568,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="6"/>
@@ -2441,14 +2596,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="6"/>
@@ -2463,14 +2618,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="6"/>
@@ -2485,14 +2640,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="6"/>
@@ -2507,14 +2662,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="6"/>
@@ -2529,14 +2684,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="6"/>
@@ -2551,14 +2706,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="6"/>
@@ -2573,14 +2728,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="6"/>
@@ -2595,14 +2750,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6"/>
@@ -2617,14 +2772,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="6"/>
@@ -2639,14 +2794,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="6"/>
@@ -2661,14 +2816,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="6"/>
@@ -2683,14 +2838,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="6"/>
@@ -2705,14 +2860,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="6"/>
@@ -2727,14 +2882,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="6"/>
@@ -2749,14 +2904,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="6"/>
@@ -2771,14 +2926,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="6"/>
@@ -2789,6 +2944,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2800,11 +2977,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2823,37 +3017,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="24.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -2862,9 +3056,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2879,14 +3073,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2899,18 +3093,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2927,14 +3121,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -2951,14 +3145,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -2975,14 +3169,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2999,14 +3193,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3023,14 +3217,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3047,14 +3241,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3071,14 +3265,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3095,14 +3289,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3119,14 +3313,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3143,14 +3337,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3167,14 +3361,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3191,14 +3385,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3215,14 +3409,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3239,14 +3433,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3263,14 +3457,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3287,14 +3481,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3307,6 +3501,30 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3318,11 +3536,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F8:F20 F6">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4 F8:F20 F6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3334,13 +3569,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3351,12 +3586,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F21">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3375,38 +3610,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3415,9 +3650,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3432,14 +3667,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3452,19 +3687,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3482,14 +3717,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3506,14 +3741,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3530,14 +3765,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3554,14 +3789,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3578,14 +3813,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3602,14 +3837,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3626,14 +3861,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3650,14 +3885,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3674,14 +3909,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3698,14 +3933,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3722,14 +3957,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3746,14 +3981,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3770,14 +4005,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3794,14 +4029,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3818,14 +4053,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3842,14 +4077,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3862,6 +4097,30 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3873,11 +4132,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3896,38 +4172,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3936,9 +4212,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3953,14 +4229,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3978,14 +4254,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -4003,14 +4279,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4027,14 +4303,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -4051,14 +4327,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -4075,14 +4351,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4099,14 +4375,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -4123,14 +4399,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -4147,14 +4423,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4171,14 +4447,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4195,14 +4471,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4219,14 +4495,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -4243,14 +4519,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4267,14 +4543,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -4291,14 +4567,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -4315,14 +4591,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4339,14 +4615,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -4363,14 +4639,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -4384,6 +4660,30 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4394,11 +4694,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4417,38 +4734,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -4457,9 +4774,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4474,14 +4791,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -4494,19 +4811,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -4525,14 +4842,14 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4549,14 +4866,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -4573,14 +4890,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -4597,14 +4914,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4621,14 +4938,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -4645,14 +4962,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -4669,14 +4986,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4693,14 +5010,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4717,14 +5034,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4741,14 +5058,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -4765,14 +5082,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4789,14 +5106,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -4813,14 +5130,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -4837,14 +5154,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4861,14 +5178,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -4885,14 +5202,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -4905,6 +5222,30 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4916,11 +5257,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4939,38 +5297,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
@@ -4979,9 +5337,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4996,14 +5354,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -5016,19 +5374,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -5047,14 +5405,14 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -5071,14 +5429,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -5095,14 +5453,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -5119,14 +5477,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -5143,14 +5501,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -5167,14 +5525,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -5191,14 +5549,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -5215,14 +5573,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -5239,14 +5597,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -5263,14 +5621,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -5287,14 +5645,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5311,14 +5669,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -5335,14 +5693,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -5359,14 +5717,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -5383,14 +5741,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -5407,14 +5765,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -5427,6 +5785,30 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5438,11 +5820,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5461,7 +5860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5471,14 +5870,14 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -5489,7 +5888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -5500,7 +5899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -5511,7 +5910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -5522,7 +5921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -5533,7 +5932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -5544,7 +5943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -5557,12 +5956,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\San_Marino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B014C9E-4598-4A41-905F-9BECB1C6A8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31354E86-1EDE-400E-A4A9-4F0559BE05FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="129">
   <si>
     <t>-</t>
   </si>
@@ -705,13 +714,67 @@
   </si>
   <si>
     <t>644.757</t>
+  </si>
+  <si>
+    <t>МД</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>10c</t>
+  </si>
+  <si>
+    <t>23.400</t>
+  </si>
+  <si>
+    <t>423.400</t>
+  </si>
+  <si>
+    <t>808.755</t>
+  </si>
+  <si>
+    <t>22.300</t>
+  </si>
+  <si>
+    <t>822.300</t>
+  </si>
+  <si>
+    <t>772.300</t>
+  </si>
+  <si>
+    <t>452.282</t>
+  </si>
+  <si>
+    <t>21.600</t>
+  </si>
+  <si>
+    <t>500.280</t>
+  </si>
+  <si>
+    <t>601.600</t>
+  </si>
+  <si>
+    <t>741.600</t>
+  </si>
+  <si>
+    <t>685.773</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -767,6 +830,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -906,7 +973,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -985,6 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -999,71 +1067,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1145,6 +1148,71 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1176,9 +1244,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1447,26 +1515,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:G21"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="24.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="24.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -1485,7 +1553,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -1502,7 +1570,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -1525,7 +1593,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -1548,7 +1616,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -1570,7 +1638,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -1592,7 +1660,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -1614,7 +1682,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -1636,7 +1704,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -1658,7 +1726,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -1680,7 +1748,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -1702,7 +1770,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -1724,7 +1792,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -1746,7 +1814,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -1768,7 +1836,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -1790,7 +1858,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -1812,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -1834,7 +1902,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -1856,7 +1924,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -1878,7 +1946,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -1900,7 +1968,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -1918,7 +1986,73 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G21:G22" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1928,12 +2062,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1945,12 +2080,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1970,27 +2105,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="K20:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -2009,7 +2144,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -2026,7 +2161,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2049,7 +2184,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2072,7 +2207,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2094,7 +2229,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2116,7 +2251,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2138,7 +2273,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2160,7 +2295,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2182,7 +2317,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -2204,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2226,7 +2361,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2248,7 +2383,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2270,7 +2405,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2292,7 +2427,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -2314,7 +2449,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -2336,7 +2471,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -2358,7 +2493,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -2380,7 +2515,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -2402,7 +2537,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -2424,7 +2559,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -2443,6 +2578,72 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2452,12 +2653,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2469,12 +2671,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2494,27 +2696,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -2533,7 +2735,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -2550,7 +2752,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2573,7 +2775,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2596,7 +2798,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2618,7 +2820,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2640,7 +2842,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2662,7 +2864,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2684,7 +2886,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2706,7 +2908,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -2728,7 +2930,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2750,7 +2952,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2772,7 +2974,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2794,7 +2996,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2816,7 +3018,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -2838,7 +3040,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -2860,7 +3062,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -2882,7 +3084,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -2904,7 +3106,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -2926,7 +3128,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -2948,7 +3150,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -2967,6 +3169,72 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2976,12 +3244,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2993,12 +3262,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3018,26 +3287,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="L23:P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3056,7 +3325,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -3073,7 +3342,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3097,7 +3366,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -3121,7 +3390,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -3145,7 +3414,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -3169,7 +3438,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -3193,7 +3462,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -3217,7 +3486,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -3241,7 +3510,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -3265,7 +3534,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -3289,7 +3558,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -3313,7 +3582,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -3337,7 +3606,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -3361,7 +3630,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -3385,7 +3654,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -3409,7 +3678,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -3433,7 +3702,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -3457,7 +3726,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -3481,7 +3750,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -3505,7 +3774,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -3526,6 +3795,78 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3535,12 +3876,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F4 F8:F20 F6">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F4 F8:F20 F6 F22 F24">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4 F8:F20 F6">
+  <conditionalFormatting sqref="F3:F4 F8:F20 F6 F22 F24">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3553,7 +3895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3570,7 +3912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3586,12 +3928,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3611,27 +3953,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="L22:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3650,7 +3992,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -3667,7 +4009,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3692,7 +4034,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -3717,7 +4059,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -3741,7 +4083,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -3765,7 +4107,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -3789,7 +4131,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -3813,7 +4155,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -3837,7 +4179,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -3861,7 +4203,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -3885,7 +4227,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -3909,7 +4251,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -3933,7 +4275,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -3957,7 +4299,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -3981,7 +4323,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -4005,7 +4347,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -4053,7 +4395,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -4077,7 +4419,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -4101,7 +4443,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -4123,6 +4465,149 @@
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="M22" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L23">
+        <v>2021</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L24">
+        <v>2022</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" t="s">
+        <v>120</v>
+      </c>
+      <c r="P24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <v>2023</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4131,12 +4616,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4148,12 +4634,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4173,27 +4659,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="K23:Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -4212,7 +4698,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -4229,7 +4715,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -4254,7 +4740,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -4279,7 +4765,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -4303,7 +4789,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -4327,7 +4813,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4351,7 +4837,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4375,7 +4861,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -4399,7 +4885,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -4423,7 +4909,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -4447,7 +4933,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -4471,7 +4957,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -4495,7 +4981,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -4519,7 +5005,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -4543,7 +5029,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -4567,7 +5053,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -4591,7 +5077,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -4615,7 +5101,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -4639,7 +5125,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -4663,7 +5149,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -4683,7 +5169,79 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G21:G22" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4693,12 +5251,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F24 F22">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F24 F22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4710,12 +5269,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4735,27 +5294,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="A21:G21"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="L21:S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -4774,7 +5333,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -4791,7 +5350,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -4816,7 +5375,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -4842,7 +5401,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -4866,7 +5425,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -4890,7 +5449,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4914,7 +5473,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4938,7 +5497,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -4962,7 +5521,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -4986,7 +5545,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -5010,7 +5569,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -5034,7 +5593,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -5058,7 +5617,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -5082,7 +5641,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -5106,7 +5665,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -5130,7 +5689,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -5154,7 +5713,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -5178,7 +5737,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -5202,7 +5761,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -5226,7 +5785,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -5247,6 +5806,79 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T21" s="30"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5256,12 +5888,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5273,12 +5906,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5298,27 +5931,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="I26:Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -5337,7 +5970,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
@@ -5354,7 +5987,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -5379,7 +6012,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -5405,7 +6038,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -5429,7 +6062,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -5453,7 +6086,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -5477,7 +6110,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -5501,7 +6134,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -5525,7 +6158,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -5549,7 +6182,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -5573,7 +6206,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -5597,7 +6230,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -5621,7 +6254,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -5645,7 +6278,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -5669,7 +6302,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -5693,7 +6326,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -5717,7 +6350,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -5741,7 +6374,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -5765,7 +6398,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -5789,7 +6422,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -5812,6 +6445,81 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R26" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5819,12 +6527,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5836,12 +6545,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5870,14 +6579,14 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -5888,7 +6597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -5899,7 +6608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -5910,7 +6619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -5921,7 +6630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -5932,7 +6641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -5943,7 +6652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31354E86-1EDE-400E-A4A9-4F0559BE05FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AD641-D3AC-43F2-9AF7-155915B0DC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="124">
   <si>
     <t>-</t>
   </si>
@@ -386,9 +386,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -716,21 +713,6 @@
     <t>644.757</t>
   </si>
   <si>
-    <t>МД</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>5c</t>
-  </si>
-  <si>
-    <t>10c</t>
-  </si>
-  <si>
     <t>23.400</t>
   </si>
   <si>
@@ -765,6 +747,9 @@
   </si>
   <si>
     <t>685.773</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1040,6 +1025,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,7 +1038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1060,6 +1045,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1204,15 +1198,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1244,9 +1229,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1517,11 +1502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1535,38 +1520,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1575,14 +1560,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -1598,14 +1583,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -1621,14 +1606,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1643,14 +1628,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -1665,14 +1650,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1687,14 +1672,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -1709,14 +1694,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -1731,14 +1716,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -1753,14 +1738,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -1775,14 +1760,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -1797,14 +1782,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -1819,14 +1804,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1841,14 +1826,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -1863,14 +1848,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -1885,14 +1870,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1907,14 +1892,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -1929,14 +1914,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -1951,14 +1936,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -1973,14 +1958,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -1995,14 +1980,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2017,14 +2002,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2039,14 +2024,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2064,7 +2049,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2081,11 +2066,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2111,7 +2096,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="K20:M23"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2126,38 +2111,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2166,14 +2151,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -2189,14 +2174,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2212,14 +2197,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2234,14 +2219,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -2256,14 +2241,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2278,14 +2263,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -2300,14 +2285,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -2322,14 +2307,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -2344,14 +2329,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -2366,14 +2351,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -2388,14 +2373,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -2410,14 +2395,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -2432,14 +2417,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -2454,14 +2439,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2476,14 +2461,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2498,14 +2483,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -2520,14 +2505,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2542,14 +2527,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2564,14 +2549,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2586,14 +2571,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2608,14 +2593,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2630,14 +2615,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2655,7 +2640,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2672,11 +2657,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2702,7 +2687,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24:P27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2717,38 +2702,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2757,14 +2742,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -2780,14 +2765,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2803,14 +2788,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2825,14 +2810,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -2847,14 +2832,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2869,14 +2854,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -2891,14 +2876,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -2913,14 +2898,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -2935,14 +2920,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -2957,14 +2942,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -2979,14 +2964,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3001,14 +2986,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3023,14 +3008,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3045,14 +3030,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3067,14 +3052,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -3089,14 +3074,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -3111,14 +3096,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -3133,14 +3118,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -3155,14 +3140,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -3177,14 +3162,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -3199,14 +3184,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3221,14 +3206,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3246,7 +3231,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3263,11 +3248,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3293,7 +3278,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="L23:P26"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3307,38 +3292,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3347,16 +3332,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -3371,16 +3356,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -3395,16 +3380,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3419,16 +3404,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -3443,16 +3428,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3467,16 +3452,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3491,16 +3476,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -3515,16 +3500,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -3539,16 +3524,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3563,16 +3548,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3587,16 +3572,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3611,16 +3596,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3635,16 +3620,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3659,16 +3644,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3683,16 +3668,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -3707,16 +3692,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -3731,16 +3716,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -3755,16 +3740,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -3779,16 +3764,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -3803,16 +3788,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -3827,16 +3812,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3851,16 +3836,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3878,7 +3863,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F4 F8:F20 F6 F22 F24">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3895,7 +3880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3912,7 +3897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3929,11 +3914,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3953,13 +3938,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="L22:Q25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3974,38 +3959,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4014,16 +3999,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4039,16 +4024,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4064,16 +4049,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -4088,16 +4073,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4112,16 +4097,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4136,16 +4121,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4160,16 +4145,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4184,16 +4169,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -4208,16 +4193,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4232,16 +4217,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4256,16 +4241,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4280,16 +4265,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4304,16 +4289,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4328,16 +4313,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4347,21 +4332,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4371,21 +4356,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4395,21 +4380,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4419,21 +4404,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -4443,21 +4428,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -4467,21 +4452,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -4490,37 +4475,22 @@
         <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="M22" t="s">
-        <v>112</v>
-      </c>
-      <c r="N22" t="s">
-        <v>113</v>
-      </c>
-      <c r="O22" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -4529,40 +4499,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L23">
-        <v>2021</v>
-      </c>
-      <c r="M23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" t="s">
-        <v>117</v>
-      </c>
-      <c r="O23" t="s">
-        <v>117</v>
-      </c>
-      <c r="P23" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -4570,44 +4522,6 @@
       <c r="G24" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="L24">
-        <v>2022</v>
-      </c>
-      <c r="M24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" t="s">
-        <v>120</v>
-      </c>
-      <c r="O24" t="s">
-        <v>120</v>
-      </c>
-      <c r="P24" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L25">
-        <v>2023</v>
-      </c>
-      <c r="M25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" t="s">
-        <v>124</v>
-      </c>
-      <c r="O25" t="s">
-        <v>124</v>
-      </c>
-      <c r="P25" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4618,7 +4532,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4635,11 +4549,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4665,7 +4579,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q26" sqref="K23:Q26"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4680,38 +4594,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4720,16 +4634,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4745,16 +4659,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4770,16 +4684,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -4794,16 +4708,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4818,16 +4732,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4842,16 +4756,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4866,16 +4780,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4890,16 +4804,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -4914,16 +4828,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4938,16 +4852,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4962,16 +4876,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4986,16 +4900,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5010,16 +4924,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5034,16 +4948,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5058,16 +4972,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -5082,16 +4996,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -5106,16 +5020,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5130,16 +5044,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5154,16 +5068,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5178,16 +5092,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -5202,16 +5116,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -5226,16 +5140,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -5253,7 +5167,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F24 F22">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5270,11 +5184,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5300,7 +5214,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S24" sqref="L21:S24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5315,38 +5229,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5355,16 +5269,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -5380,16 +5294,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -5406,16 +5320,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5430,16 +5344,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -5454,16 +5368,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5478,16 +5392,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -5502,16 +5416,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -5526,16 +5440,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5550,16 +5464,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5574,16 +5488,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -5598,16 +5512,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5622,16 +5536,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5646,16 +5560,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5670,16 +5584,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5694,16 +5608,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -5718,16 +5632,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5742,16 +5656,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5766,16 +5680,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5790,16 +5704,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5808,23 +5722,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T21" s="30"/>
+      <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5839,16 +5753,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -5863,16 +5777,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -5890,7 +5804,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5907,11 +5821,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5933,11 +5847,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="I26:Q29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5952,38 +5866,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5992,16 +5906,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -6017,16 +5931,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -6043,16 +5957,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -6067,16 +5981,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -6091,16 +6005,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -6115,16 +6029,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -6139,16 +6053,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -6163,16 +6077,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -6187,16 +6101,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -6211,16 +6125,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -6235,16 +6149,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -6259,16 +6173,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -6283,16 +6197,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -6307,16 +6221,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -6331,16 +6245,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -6355,16 +6269,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -6379,16 +6293,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -6403,16 +6317,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -6427,16 +6341,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -6451,16 +6365,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -6475,16 +6389,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -6499,16 +6413,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -6519,7 +6433,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R26" s="30"/>
+      <c r="R26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6529,7 +6443,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6546,11 +6460,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6588,13 +6502,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6602,10 +6516,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6613,10 +6527,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6624,10 +6538,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6635,10 +6549,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6646,10 +6560,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6657,10 +6571,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AD641-D3AC-43F2-9AF7-155915B0DC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE715E-721C-4CED-9C21-EE8901F813D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="124">
   <si>
     <t>-</t>
   </si>
@@ -1044,7 +1044,39 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1229,9 +1261,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2049,7 +2081,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2066,11 +2098,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2640,7 +2672,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2657,11 +2689,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3231,7 +3263,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3248,11 +3280,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3863,7 +3895,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F4 F8:F20 F6 F22 F24">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3880,7 +3912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3897,7 +3929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3914,11 +3946,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3938,13 +3970,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4472,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G22:G25" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4520,6 +4552,28 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4532,11 +4586,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4548,12 +4619,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4573,13 +4644,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5159,6 +5230,28 @@
         <v/>
       </c>
     </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25" si="3">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -5167,11 +5260,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F24 F22">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F24 F22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5183,12 +5293,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5208,13 +5318,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5796,6 +5906,24 @@
         <v/>
       </c>
     </row>
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -5804,11 +5932,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5820,12 +5965,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5851,7 +5996,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6432,6 +6577,28 @@
         <v/>
       </c>
     </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="R26" s="26"/>
     </row>
@@ -6443,11 +6610,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6459,12 +6643,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE715E-721C-4CED-9C21-EE8901F813D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57362B46-42DD-48C6-8487-6BC8E5812F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1046,6 +1046,15 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1076,15 +1085,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1261,9 +1261,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1538,7 +1538,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1648,7 +1648,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2102,7 +2102,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2124,11 +2124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2239,7 +2239,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2693,7 +2693,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3284,7 +3284,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3950,7 +3950,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4607,7 +4607,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4620,7 +4620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5260,7 +5260,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F24 F22">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5277,11 +5277,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5294,7 +5294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5932,7 +5932,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5949,11 +5949,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5966,7 +5966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5992,7 +5992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6610,7 +6610,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6627,11 +6627,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6644,7 +6644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57362B46-42DD-48C6-8487-6BC8E5812F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA4CD60-ABC3-4729-BFC4-26B3E5DB5798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="125">
   <si>
     <t>-</t>
   </si>
@@ -392,12 +402,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -750,6 +754,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -819,6 +832,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -859,7 +874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -952,13 +967,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,6 +1068,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,6 +1078,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1538,52 +1589,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1592,14 +1643,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -1615,14 +1666,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -1638,14 +1689,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1660,14 +1711,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -1682,14 +1733,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1704,14 +1755,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -1726,14 +1777,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -1748,14 +1799,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -1770,14 +1821,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -1792,14 +1843,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -1814,14 +1865,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -1836,14 +1887,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1858,14 +1909,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -1880,14 +1931,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -1902,14 +1953,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1924,14 +1975,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -1946,14 +1997,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -1968,14 +2019,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -1990,14 +2041,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2012,14 +2063,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2034,14 +2085,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2056,14 +2107,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2074,9 +2125,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2102,7 +2153,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2124,57 +2175,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2183,14 +2233,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -2206,14 +2256,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2229,14 +2279,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2251,14 +2301,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -2273,14 +2323,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2295,14 +2345,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -2317,14 +2367,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -2339,14 +2389,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -2361,14 +2411,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -2383,14 +2433,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -2405,14 +2455,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -2427,14 +2477,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -2449,14 +2499,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -2471,14 +2521,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2493,14 +2543,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2515,14 +2565,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -2537,14 +2587,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2559,14 +2609,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2581,14 +2631,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2603,14 +2653,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2625,14 +2675,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2647,14 +2697,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2665,9 +2715,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2693,7 +2743,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2719,53 +2769,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2774,14 +2823,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -2797,14 +2846,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2820,14 +2869,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2842,14 +2891,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -2864,14 +2913,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2886,14 +2935,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -2908,14 +2957,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -2930,14 +2979,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -2952,14 +3001,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -2974,14 +3023,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -2996,14 +3045,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3018,14 +3067,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3040,14 +3089,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3062,14 +3111,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3084,14 +3133,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -3106,14 +3155,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -3128,14 +3177,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -3150,14 +3199,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -3172,14 +3221,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -3194,14 +3243,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -3216,14 +3265,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3238,14 +3287,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3256,9 +3305,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3284,7 +3333,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3310,52 +3359,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3364,16 +3413,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -3388,16 +3437,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -3412,16 +3461,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3436,16 +3485,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -3460,16 +3509,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3484,16 +3533,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3508,16 +3557,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -3532,16 +3581,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -3556,16 +3605,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3580,16 +3629,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3604,16 +3653,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3628,16 +3677,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3652,16 +3701,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3676,16 +3725,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3700,16 +3749,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -3724,16 +3773,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -3748,16 +3797,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -3772,16 +3821,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -3796,16 +3845,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -3820,16 +3869,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -3844,16 +3893,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3868,16 +3917,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3888,9 +3937,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3950,7 +3999,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3976,53 +4025,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4031,16 +4079,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4056,16 +4104,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4081,16 +4129,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -4105,16 +4153,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4129,16 +4177,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4153,16 +4201,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4177,16 +4225,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4201,16 +4249,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -4225,16 +4273,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4249,16 +4297,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4273,16 +4321,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4297,16 +4345,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4321,16 +4369,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4345,16 +4393,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4369,16 +4417,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4393,16 +4441,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4417,16 +4465,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4441,16 +4489,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -4465,16 +4513,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -4489,16 +4537,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -4513,16 +4561,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -4537,16 +4585,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -4561,13 +4609,13 @@
         <v>2024</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="1">
@@ -4579,9 +4627,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4607,7 +4655,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4646,57 +4694,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4705,16 +4752,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4730,16 +4777,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4755,16 +4802,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -4779,16 +4826,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4803,16 +4850,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4827,16 +4874,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4851,16 +4898,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4875,16 +4922,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -4899,16 +4946,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4923,16 +4970,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4947,16 +4994,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4971,16 +5018,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4995,16 +5042,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5019,16 +5066,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5043,16 +5090,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -5067,16 +5114,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -5091,16 +5138,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5115,16 +5162,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5139,16 +5186,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5163,16 +5210,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -5187,16 +5234,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -5211,16 +5258,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -5235,13 +5282,13 @@
         <v>2024</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="1">
@@ -5253,9 +5300,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5281,7 +5328,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5324,53 +5371,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5379,16 +5425,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -5404,16 +5450,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -5430,16 +5476,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5454,16 +5500,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -5478,16 +5524,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5502,16 +5548,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -5526,16 +5572,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -5550,16 +5596,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5574,16 +5620,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5598,16 +5644,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -5622,16 +5668,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5646,16 +5692,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5670,16 +5716,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5694,16 +5740,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5718,16 +5764,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -5742,16 +5788,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5766,16 +5812,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5790,16 +5836,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5814,16 +5860,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5839,16 +5885,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5863,16 +5909,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -5887,16 +5933,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -5911,13 +5957,13 @@
         <v>2024</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="1">
@@ -5925,9 +5971,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5953,7 +5999,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5996,53 +6042,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -6051,16 +6096,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -6076,16 +6121,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -6102,16 +6147,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -6126,16 +6171,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -6150,16 +6195,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -6174,16 +6219,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -6198,16 +6243,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -6222,16 +6267,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -6246,16 +6291,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -6270,16 +6315,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -6294,16 +6339,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -6318,16 +6363,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -6342,16 +6387,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -6366,16 +6411,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -6390,16 +6435,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -6414,16 +6459,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -6438,16 +6483,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -6462,16 +6507,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -6486,16 +6531,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -6510,16 +6555,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -6534,16 +6579,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -6558,16 +6603,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -6582,13 +6627,13 @@
         <v>2024</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="1">
@@ -6603,9 +6648,9 @@
       <c r="R26" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6631,7 +6676,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6686,13 +6731,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6700,10 +6745,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6711,10 +6756,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6722,10 +6767,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6733,10 +6778,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6744,10 +6789,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6755,10 +6800,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA4CD60-ABC3-4729-BFC4-26B3E5DB5798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF539A90-8FCC-4ED5-9CDD-7012B5B9D509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="134">
   <si>
     <t>-</t>
   </si>
@@ -763,6 +763,33 @@
   </si>
   <si>
     <t>Subtype_2#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>21.000</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>821.000</t>
+  </si>
+  <si>
+    <t>650.426</t>
+  </si>
+  <si>
+    <t>701.000</t>
+  </si>
+  <si>
+    <t>621.000</t>
+  </si>
+  <si>
+    <t>801.000</t>
+  </si>
+  <si>
+    <t>836.000</t>
+  </si>
+  <si>
+    <t>636.000</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1110,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1122,47 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1312,9 +1379,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1583,13 +1650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2124,6 +2191,50 @@
         <v/>
       </c>
     </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G26" si="3">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
@@ -2131,12 +2242,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F20 F22 F24 F26">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20 F22 F24">
+  <conditionalFormatting sqref="F3:F20 F22 F24 F26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2148,12 +2259,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23 F25">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21 F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2173,13 +2284,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2714,6 +2825,50 @@
         <v/>
       </c>
     </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G26" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="2">
@@ -2721,12 +2876,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F20 F22 F24 F26">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20 F22 F24">
+  <conditionalFormatting sqref="F3:F20 F22 F24 F26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2738,12 +2893,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23 F25">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21 F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2763,13 +2918,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3304,6 +3459,50 @@
         <v/>
       </c>
     </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G26" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="2">
@@ -3311,12 +3510,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F20 F22 F24 F26">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20 F22 F24">
+  <conditionalFormatting sqref="F3:F20 F22 F24 F26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3328,12 +3527,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23 F25">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21 F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3353,13 +3552,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3380,7 +3579,7 @@
       <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3589,7 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
@@ -3933,6 +4132,54 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G26" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3943,12 +4190,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F4 F8:F20 F6 F22 F24">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F4 F8:F20 F6 F22 F24:F25">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4 F8:F20 F6 F22 F24">
+  <conditionalFormatting sqref="F3:F4 F8:F20 F6 F22 F24:F25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3961,7 +4208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3978,7 +4225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3994,12 +4241,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23 F26">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4019,13 +4266,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4046,7 +4293,7 @@
       <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -4056,7 +4303,7 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
@@ -4617,12 +4864,38 @@
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" ref="G26" si="2">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4634,11 +4907,45 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23 F21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4650,29 +4957,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4692,13 +4982,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4719,7 +5009,7 @@
       <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -4729,7 +5019,7 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
@@ -5290,12 +5580,38 @@
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ref="G25" si="3">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" ref="G26" si="4">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5307,11 +5623,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F24 F22">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F24 F22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5323,12 +5656,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5340,12 +5673,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5365,13 +5698,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5392,7 +5725,7 @@
       <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -5402,7 +5735,7 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
@@ -5965,9 +6298,31 @@
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="F25" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5978,11 +6333,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5994,12 +6366,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6011,12 +6383,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6042,7 +6414,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6063,7 +6435,7 @@
       <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -6073,7 +6445,7 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
@@ -6635,16 +7007,40 @@
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" ref="G25" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G25:G26" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="R26" s="26"/>
     </row>
   </sheetData>
@@ -6655,11 +7051,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6671,12 +7084,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6688,12 +7101,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6719,7 +7132,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF539A90-8FCC-4ED5-9CDD-7012B5B9D509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE716EE-B435-408A-9779-419F67B770FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1122,14 +1122,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="29">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1162,15 +1163,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1379,9 +1371,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1652,11 +1644,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1810,7 +1802,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2243,7 +2235,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24 F26">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2260,11 +2252,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23 F25">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21 F25">
+  <conditionalFormatting sqref="F21 F23 F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2290,7 +2282,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:E26"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2444,7 +2436,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2877,7 +2869,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24 F26">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2894,11 +2886,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23 F25">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21 F25">
+  <conditionalFormatting sqref="F21 F23 F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2924,7 +2916,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:E26"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3078,7 +3070,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3511,7 +3503,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24 F26">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3528,11 +3520,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23 F25">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21 F25">
+  <conditionalFormatting sqref="F21 F23 F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3558,7 +3550,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:E26"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4191,7 +4183,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F4 F8:F20 F6 F22 F24:F25">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4208,7 +4200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4225,7 +4217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4242,11 +4234,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23 F26">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21 F26">
+  <conditionalFormatting sqref="F21 F23 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4272,7 +4264,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4892,7 +4884,7 @@
         <v>127</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ref="G26" si="2">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
@@ -4907,7 +4899,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4924,11 +4916,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4941,7 +4933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4958,7 +4950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5623,7 +5615,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F24 F22">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5640,11 +5632,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5657,7 +5649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5674,7 +5666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5700,11 +5692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6302,7 +6294,7 @@
         <v>131</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6322,7 +6314,7 @@
         <v>130</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6333,7 +6325,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6350,11 +6342,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6367,7 +6359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6384,7 +6376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6414,7 +6406,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7035,11 +7027,11 @@
         <v>133</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
       <c r="R26" s="26"/>
     </row>
@@ -7051,7 +7043,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7068,11 +7060,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7085,7 +7077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7102,7 +7094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE716EE-B435-408A-9779-419F67B770FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A98F21-6DBC-4D00-85FC-5AD3F90453DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,6 +46,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2256,7 +2259,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23 F25">
+  <conditionalFormatting sqref="F23 F21 F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2890,7 +2893,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23 F25">
+  <conditionalFormatting sqref="F23 F21 F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3524,7 +3527,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23 F25">
+  <conditionalFormatting sqref="F23 F21 F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4238,7 +4241,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23 F26">
+  <conditionalFormatting sqref="F23 F21 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4920,7 +4923,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5636,7 +5639,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5696,7 +5699,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6314,7 +6317,7 @@
         <v>130</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6346,7 +6349,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7064,7 +7067,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
